--- a/tests/reports/template_one_frame.xlsx
+++ b/tests/reports/template_one_frame.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10104"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xlwings-reports/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fz/Dev/xlwings/tests/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980983D3-2AF1-DF44-8530-AE13712C94DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFA8158-5E06-554A-8C5E-D2B5DAB86E8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5140" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{067FA1A3-0A1A-9D47-AF24-FFC77F991161}"/>
+    <workbookView xWindow="-3860" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{067FA1A3-0A1A-9D47-AF24-FFC77F991161}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>{{ title }}</t>
   </si>
@@ -48,6 +49,12 @@
   </si>
   <si>
     <t>&lt;frame&gt;</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
   </si>
 </sst>
 </file>
@@ -82,7 +89,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -101,21 +108,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -126,6 +259,30 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EB65F61B-FD66-AF44-91C4-244DD01C51FB}" name="Table1" displayName="Table1" ref="A5:C6" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="9">
+  <autoFilter ref="A5:C6" xr:uid="{82D8518D-25BA-9941-BFC9-695DF9AF8F82}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{87279D44-8C1C-0540-95D3-FE5624648568}" name="{{ df }}" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{68D05BF8-DBFD-1343-93AA-5BB6E222AC8A}" name="Column1" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{FFEFE37E-3C11-1A45-937C-024C8A3D6521}" name="Column2" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8CB76B1D-2D0D-C943-B423-3C50DD9FAB46}" name="Table2" displayName="Table2" ref="A9:C10" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="4">
+  <autoFilter ref="A9:C10" xr:uid="{05A1CD60-8F4D-1747-A7C3-B5CD70EA6797}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8C63A51D-B5DE-8C4C-BD07-BC1C27BAC760}" name="{{ df }}" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{52E37ED6-3AB2-EE47-82FD-B6B763FD3F44}" name="Column1" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{F8CF9A6C-D449-F543-8AA2-4A40F74051D1}" name="Column2" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,7 +584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7BF4B1-DDA4-4040-9502-D418F7BB2E86}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -480,4 +637,75 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB13635C-A27F-964A-B547-72993895C141}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/tests/reports/template_one_frame.xlsx
+++ b/tests/reports/template_one_frame.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fz/Dev/xlwings/tests/reports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Dev\xlwings\tests\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFA8158-5E06-554A-8C5E-D2B5DAB86E8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEE9B64-0066-4E0F-840A-5AFFFD3BAAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3860" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{067FA1A3-0A1A-9D47-AF24-FFC77F991161}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" xr2:uid="{067FA1A3-0A1A-9D47-AF24-FFC77F991161}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,56 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Felix Zumstein</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{81C3B9C1-9F40-4EE7-928C-7580BE5EE761}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>&lt;frame&gt;</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Felix Zumstein</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{13648428-B068-4175-9DED-4CB56CFC1D32}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>&lt;frame&gt;</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
     <t>{{ title }}</t>
   </si>
@@ -48,9 +96,6 @@
     <t>PART TWO</t>
   </si>
   <si>
-    <t>&lt;frame&gt;</t>
-  </si>
-  <si>
     <t>Column1</t>
   </si>
   <si>
@@ -61,12 +106,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -135,14 +187,6 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -248,6 +292,14 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -262,24 +314,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EB65F61B-FD66-AF44-91C4-244DD01C51FB}" name="Table1" displayName="Table1" ref="A5:C6" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="9">
-  <autoFilter ref="A5:C6" xr:uid="{82D8518D-25BA-9941-BFC9-695DF9AF8F82}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EB65F61B-FD66-AF44-91C4-244DD01C51FB}" name="Table1" displayName="Table1" ref="A4:C5" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="A4:C5" xr:uid="{82D8518D-25BA-9941-BFC9-695DF9AF8F82}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{87279D44-8C1C-0540-95D3-FE5624648568}" name="{{ df }}" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{68D05BF8-DBFD-1343-93AA-5BB6E222AC8A}" name="Column1" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{FFEFE37E-3C11-1A45-937C-024C8A3D6521}" name="Column2" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{87279D44-8C1C-0540-95D3-FE5624648568}" name="{{ df }}" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{68D05BF8-DBFD-1343-93AA-5BB6E222AC8A}" name="Column1" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{FFEFE37E-3C11-1A45-937C-024C8A3D6521}" name="Column2" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8CB76B1D-2D0D-C943-B423-3C50DD9FAB46}" name="Table2" displayName="Table2" ref="A9:C10" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="4">
-  <autoFilter ref="A9:C10" xr:uid="{05A1CD60-8F4D-1747-A7C3-B5CD70EA6797}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8CB76B1D-2D0D-C943-B423-3C50DD9FAB46}" name="Table2" displayName="Table2" ref="A8:C9" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="A8:C9" xr:uid="{05A1CD60-8F4D-1747-A7C3-B5CD70EA6797}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8C63A51D-B5DE-8C4C-BD07-BC1C27BAC760}" name="{{ df }}" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{52E37ED6-3AB2-EE47-82FD-B6B763FD3F44}" name="Column1" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{F8CF9A6C-D449-F543-8AA2-4A40F74051D1}" name="Column2" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{8C63A51D-B5DE-8C4C-BD07-BC1C27BAC760}" name="{{ df }}" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{52E37ED6-3AB2-EE47-82FD-B6B763FD3F44}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{F8CF9A6C-D449-F543-8AA2-4A40F74051D1}" name="Column2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -581,131 +633,123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7BF4B1-DDA4-4040-9502-D418F7BB2E86}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7BF4B1-DDA4-4040-9502-D418F7BB2E86}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB13635C-A27F-964A-B547-72993895C141}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB13635C-A27F-964A-B547-72993895C141}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>